--- a/Sample Test Case .xlsx
+++ b/Sample Test Case .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141108F8-82B9-4227-BC17-0F164FE51DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59F4B7-8E07-4365-9B65-5636AD1B8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A4740AFC-9DB2-4828-A603-0153BAC73FE7}"/>
+    <workbookView xWindow="13335" yWindow="0" windowWidth="14520" windowHeight="15585" xr2:uid="{A4740AFC-9DB2-4828-A603-0153BAC73FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -109,9 +109,6 @@
     <t xml:space="preserve">1. send a post request with the fields: email, and password 2. Check the email and password and match it with the actual values. 3. check if new token is generated or not </t>
   </si>
   <si>
-    <t>successful follow a user</t>
-  </si>
-  <si>
     <t>api/follow/{id}</t>
   </si>
   <si>
@@ -125,6 +122,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>follow a user with valid user id</t>
+  </si>
+  <si>
+    <t>follow a user with invalid user id</t>
+  </si>
+  <si>
+    <t>To check if the if follow request is unsucessfull if user id is invalid</t>
+  </si>
+  <si>
+    <t>1. Provide an invalid user id. 2. send a post request 3. check if the response body contains an appropriate error message</t>
+  </si>
+  <si>
+    <t>follow a user without authenticating</t>
+  </si>
+  <si>
+    <t>verify that following a user fails when the user Is not authenticated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative </t>
+  </si>
+  <si>
+    <t>1. send a post request without authentication. 2. check if the response body contains an appropriate error message</t>
   </si>
 </sst>
 </file>
@@ -512,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE0CC9D-B066-4AFD-AA56-8ED72E210351}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,22 +641,56 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
